--- a/pred_ohlcv/54_21/2020-01-16 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 LAMB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1000456.013936331</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>999169.7907363309</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>949470.4230363308</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>993894.4306363309</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,7 +626,7 @@
         <v>542039.806036331</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -730,7 +730,7 @@
         <v>525866.709836331</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -860,7 +860,7 @@
         <v>217839.6349363309</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>205698.6905363309</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>205698.6905363309</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>166381.8245363309</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>161819.9336363309</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>113519.4504363309</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-180227.7303644673</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-235359.9461644673</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-274401.4231644673</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-303210.1657644673</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-296406.7341644673</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-294966.8810781419</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-310874.1801781419</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-310874.1801781419</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-311062.6797781419</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-321016.4243781419</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-431482.5958781419</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-419070.0442781419</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-207344.4520781419</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-474485.1288746812</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-476915.0809746812</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-476815.0809746812</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-476715.0809746812</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-470014.5234746812</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-414437.8174746812</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-410851.8200754615</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-410351.8200754615</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-328671.7343754615</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-340545.3758754615</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-340545.3758754615</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-340545.3758754615</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-339545.3758754615</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-338545.3758754615</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-348228.3758754615</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-345728.3758754615</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-340104.7195754615</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-339156.9585754615</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-339173.0616754615</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>186755.1750297621</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>184755.1750297621</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-375146.292559226</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 LAMB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1000456.013936331</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>999169.7907363309</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>949470.4230363308</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>993894.4306363309</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1031921.430636331</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1054147.925036331</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>542039.806036331</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -782,7 +782,7 @@
         <v>437882.778936331</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>411185.312736331</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>457784.9396363309</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>217839.6349363309</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>215709.3303363309</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>205698.6905363309</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>205698.6905363309</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>166381.8245363309</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>161819.9336363309</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>113519.4504363309</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-294966.8810781419</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-310874.1801781419</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-310874.1801781419</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-311062.6797781419</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-321016.4243781419</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-431482.5958781419</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-419070.0442781419</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-419070.0442781419</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-419070.0442781419</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-476915.0809746812</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-476815.0809746812</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-476715.0809746812</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-470014.5234746812</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-414437.8174746812</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-410851.8200754615</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-410351.8200754615</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-351997.8528754615</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-328671.7343754615</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-340545.3758754615</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-340545.3758754615</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-340545.3758754615</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-339545.3758754615</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-338545.3758754615</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-348228.3758754615</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-345728.3758754615</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-340104.7195754615</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-339156.9585754615</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-339173.0616754615</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-324896.3399754615</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-316349.2982754615</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-308351.2311754616</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-300182.0622754616</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-251191.3872754616</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-252224.6652754616</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-25137.15907546156</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-25137.15907546156</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-25137.15907546156</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-25137.15907546156</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>221671.5686245385</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>224671.5686245385</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>49441.95172976208</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>60628.78812976208</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>60628.78812976208</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>159484.8970297621</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>194031.1172297621</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>190096.1750297621</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>186755.1750297621</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>184755.1750297621</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>157111.9608297621</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>122565.7406297621</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-375146.292559226</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-564392.264459226</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-564392.264459226</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-565521.369859226</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-563521.369859226</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-541811.887759226</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-541711.887759226</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-681952.237359226</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-681952.237359226</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-681952.237359226</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-624801.4482592259</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-626012.7618592259</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-626047.7618592259</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-658797.9502592259</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-658697.9502592259</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-697608.9489592259</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-697608.9489592259</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-717064.4483592259</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-716745.3673126401</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-716645.3673126401</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-716545.3673126401</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-713388.8016560744</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-718284.0707560744</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-719487.8238560744</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-719387.8238560744</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-681587.8238560744</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-682398.1987560744</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-682298.1987560744</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-729377.3336560744</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-729343.3424280041</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-790092.1174493878</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-790531.2632493878</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-792031.2632493878</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-792031.2632493878</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-791631.2632493878</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-791531.2632493878</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-800031.2632493878</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-803531.2632493878</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-803531.2632493878</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-800171.2632493878</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-800171.2632493878</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-773404.3996493878</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-778519.8958493879</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-781707.4395493879</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-786919.7929493879</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-809660.8433493879</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-809627.8471420554</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-753680.8471420554</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-770226.7299420554</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-767726.7299420554</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-779226.7299420554</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-779226.7299420554</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-779226.7299420554</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-779226.7299420554</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-783223.3566420554</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-784223.3566420554</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-778818.8582420554</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-762605.3630420554</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-757275.6057420553</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-757231.3922420554</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-758557.9613420554</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-758557.9613420554</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-758557.9613420554</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-758557.9613420554</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-758557.9613420554</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-740634.9613420554</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-740634.9613420554</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-740634.9613420554</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-740634.9613420554</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-738267.6412420553</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-738267.6412420553</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-738267.6412420553</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-738267.6412420553</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-737112.814267958</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-700031.834020482</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-699932.8244291845</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-693130.8152719227</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-693660.0452719227</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-693660.0452719227</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-695660.0452719227</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-693926.1519069272</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-705874.3414752824</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-704054.3619849158</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-704345.1462849159</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-689162.1319849158</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-687005.128815709</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-764216.609715709</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-764216.609715709</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-764216.609715709</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-760921.0822953219</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-759653.097732185</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-760979.5868446967</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-747467.2534446967</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-744467.2534446967</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-742367.2543424618</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-744367.2543424618</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-789065.2543424618</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-789065.2543424618</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-789065.2543424618</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-794478.2960424618</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-794445.2756981738</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-794379.2831510012</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-795464.5832510012</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-795431.4890526232</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-795398.47722935</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-811759.87062935</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-797759.1493089132</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-795656.1489313211</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-795656.1489313211</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-798586.7726313211</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-798553.7816571536</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-800553.7816571536</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-789345.0984926415</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-790873.2075926415</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-787205.0455926415</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-822912.9382262866</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-822912.9382262866</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-822879.9485355649</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-822879.9485355649</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-822879.9485355649</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
